--- a/Evaluacion2025.xlsx
+++ b/Evaluacion2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\PensamientoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96A2846D-792D-4F7D-BE00-22919A61459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D07D42-924A-43F2-A7A1-B371A158FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7DCAC8E-B54B-475F-978E-B09DD7521686}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Examen parcial                      </t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Examenes rápidos</t>
+  </si>
+  <si>
+    <t>Realización del módulo de nivelación con Aprendizaje Adaptativo: Computación</t>
+  </si>
+  <si>
+    <t>Examen parcial</t>
+  </si>
+  <si>
+    <t>Exámenes rápidos (Quizzes)</t>
+  </si>
+  <si>
+    <t>Actividades individuales de clase, laboratorios y tareas</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,11 +112,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -112,13 +139,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,18 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE9FCB0-1F1E-4552-A2D3-995AE5CFA38A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>0.05</v>
       </c>
@@ -476,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.18</v>
       </c>
@@ -487,7 +524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.35</v>
       </c>
@@ -498,7 +535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
@@ -509,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.15</v>
       </c>
@@ -520,7 +557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.04</v>
       </c>
@@ -531,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.15</v>
       </c>
@@ -546,10 +583,56 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="6">
         <f>SUM(D1:D7)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f>SUM(F11:F15)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
